--- a/webScrapping/espn_scrapper/IPL/Delhi Capitals/Rishabh Pant †.xlsx
+++ b/webScrapping/espn_scrapper/IPL/Delhi Capitals/Rishabh Pant †.xlsx
@@ -474,282 +474,282 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v xml:space="preserve"> Oct 31 2020</v>
+        <v xml:space="preserve"> Sep 25 2020</v>
       </c>
       <c r="B3" t="str">
         <v xml:space="preserve"> Dubai (DSC)</v>
       </c>
       <c r="C3" t="str">
-        <v>Mumbai won by 9 wickets (with 34 balls remaining)</v>
+        <v>Capitals won by 44 runs</v>
       </c>
       <c r="D3" t="str">
         <v>Delhi Capitals</v>
       </c>
       <c r="E3" t="str">
-        <v>Mumbai Indians</v>
+        <v>Chennai Super Kings</v>
       </c>
       <c r="F3" t="str">
         <v>Rishabh Pant †</v>
       </c>
       <c r="G3" t="str">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H3" t="str">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" t="str">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J3" t="str">
         <v>0</v>
       </c>
       <c r="K3" t="str">
-        <v>87.50</v>
+        <v>148.00</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v xml:space="preserve"> Nov 8 2020</v>
+        <v xml:space="preserve"> Oct 20 2020</v>
       </c>
       <c r="B4" t="str">
-        <v xml:space="preserve"> Abu Dhabi</v>
+        <v xml:space="preserve"> Dubai (DSC)</v>
       </c>
       <c r="C4" t="str">
-        <v>Capitals won by 17 runs</v>
+        <v>Kings XI won by 5 wickets (with 6 balls remaining)</v>
       </c>
       <c r="D4" t="str">
         <v>Delhi Capitals</v>
       </c>
       <c r="E4" t="str">
-        <v>Sunrisers Hyderabad</v>
+        <v>Kings XI Punjab</v>
       </c>
       <c r="F4" t="str">
         <v>Rishabh Pant †</v>
       </c>
       <c r="G4" t="str">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H4" t="str">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I4" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="str">
         <v>0</v>
       </c>
       <c r="K4" t="str">
-        <v>66.66</v>
+        <v>70.00</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v xml:space="preserve"> Oct 3 2020</v>
+        <v xml:space="preserve"> Oct 31 2020</v>
       </c>
       <c r="B5" t="str">
-        <v xml:space="preserve"> Sharjah</v>
+        <v xml:space="preserve"> Dubai (DSC)</v>
       </c>
       <c r="C5" t="str">
-        <v>Capitals won by 18 runs</v>
+        <v>Mumbai won by 9 wickets (with 34 balls remaining)</v>
       </c>
       <c r="D5" t="str">
         <v>Delhi Capitals</v>
       </c>
       <c r="E5" t="str">
-        <v>Kolkata Knight Riders</v>
+        <v>Mumbai Indians</v>
       </c>
       <c r="F5" t="str">
         <v>Rishabh Pant †</v>
       </c>
       <c r="G5" t="str">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="H5" t="str">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I5" t="str">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J5" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="str">
-        <v>223.52</v>
+        <v>87.50</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v xml:space="preserve"> Oct 20 2020</v>
+        <v xml:space="preserve"> Oct 9 2020</v>
       </c>
       <c r="B6" t="str">
-        <v xml:space="preserve"> Dubai (DSC)</v>
+        <v xml:space="preserve"> Sharjah</v>
       </c>
       <c r="C6" t="str">
-        <v>Kings XI won by 5 wickets (with 6 balls remaining)</v>
+        <v>Capitals won by 46 runs</v>
       </c>
       <c r="D6" t="str">
         <v>Delhi Capitals</v>
       </c>
       <c r="E6" t="str">
-        <v>Kings XI Punjab</v>
+        <v>Rajasthan Royals</v>
       </c>
       <c r="F6" t="str">
         <v>Rishabh Pant †</v>
       </c>
       <c r="G6" t="str">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H6" t="str">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I6" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="str">
         <v>0</v>
       </c>
       <c r="K6" t="str">
-        <v>70.00</v>
+        <v>55.55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v xml:space="preserve"> Oct 5 2020</v>
+        <v xml:space="preserve"> Nov 8 2020</v>
       </c>
       <c r="B7" t="str">
-        <v xml:space="preserve"> Dubai (DSC)</v>
+        <v xml:space="preserve"> Abu Dhabi</v>
       </c>
       <c r="C7" t="str">
-        <v>Capitals won by 59 runs</v>
+        <v>Capitals won by 17 runs</v>
       </c>
       <c r="D7" t="str">
         <v>Delhi Capitals</v>
       </c>
       <c r="E7" t="str">
-        <v>Royal Challengers Bangalore</v>
+        <v>Sunrisers Hyderabad</v>
       </c>
       <c r="F7" t="str">
         <v>Rishabh Pant †</v>
       </c>
       <c r="G7" t="str">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="H7" t="str">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="I7" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J7" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K7" t="str">
-        <v>148.00</v>
+        <v>66.66</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v xml:space="preserve"> Sep 25 2020</v>
+        <v xml:space="preserve"> Sep 20 2020</v>
       </c>
       <c r="B8" t="str">
         <v xml:space="preserve"> Dubai (DSC)</v>
       </c>
       <c r="C8" t="str">
-        <v>Capitals won by 44 runs</v>
+        <v>Match tied (Capitals won the one-over eliminator)</v>
       </c>
       <c r="D8" t="str">
         <v>Delhi Capitals</v>
       </c>
       <c r="E8" t="str">
-        <v>Chennai Super Kings</v>
+        <v>Kings XI Punjab</v>
       </c>
       <c r="F8" t="str">
         <v>Rishabh Pant †</v>
       </c>
       <c r="G8" t="str">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H8" t="str">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I8" t="str">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J8" t="str">
         <v>0</v>
       </c>
       <c r="K8" t="str">
-        <v>148.00</v>
+        <v>106.89</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v xml:space="preserve"> Sep 20 2020</v>
+        <v xml:space="preserve"> Oct 5 2020</v>
       </c>
       <c r="B9" t="str">
         <v xml:space="preserve"> Dubai (DSC)</v>
       </c>
       <c r="C9" t="str">
-        <v>Match tied (Capitals won the one-over eliminator)</v>
+        <v>Capitals won by 59 runs</v>
       </c>
       <c r="D9" t="str">
         <v>Delhi Capitals</v>
       </c>
       <c r="E9" t="str">
-        <v>Kings XI Punjab</v>
+        <v>Royal Challengers Bangalore</v>
       </c>
       <c r="F9" t="str">
         <v>Rishabh Pant †</v>
       </c>
       <c r="G9" t="str">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H9" t="str">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I9" t="str">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J9" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K9" t="str">
-        <v>106.89</v>
+        <v>148.00</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v xml:space="preserve"> Oct 9 2020</v>
+        <v xml:space="preserve"> Oct 3 2020</v>
       </c>
       <c r="B10" t="str">
         <v xml:space="preserve"> Sharjah</v>
       </c>
       <c r="C10" t="str">
-        <v>Capitals won by 46 runs</v>
+        <v>Capitals won by 18 runs</v>
       </c>
       <c r="D10" t="str">
         <v>Delhi Capitals</v>
       </c>
       <c r="E10" t="str">
-        <v>Rajasthan Royals</v>
+        <v>Kolkata Knight Riders</v>
       </c>
       <c r="F10" t="str">
         <v>Rishabh Pant †</v>
       </c>
       <c r="G10" t="str">
+        <v>38</v>
+      </c>
+      <c r="H10" t="str">
+        <v>17</v>
+      </c>
+      <c r="I10" t="str">
         <v>5</v>
       </c>
-      <c r="H10" t="str">
-        <v>9</v>
-      </c>
-      <c r="I10" t="str">
-        <v>0</v>
-      </c>
       <c r="J10" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="str">
-        <v>55.55</v>
+        <v>223.52</v>
       </c>
     </row>
   </sheetData>
